--- a/console/Networking/podChExcel/podMixinsXlsx/components/create/image/imageSelect.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/create/image/imageSelect.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,13 +30,7 @@
     </r>
   </si>
   <si>
-    <t>Please select the image version</t>
-  </si>
-  <si>
     <t>imageSelect_i18nKey_2</t>
-  </si>
-  <si>
-    <t>--No Available Image Version--</t>
   </si>
   <si>
     <r>
@@ -66,12 +55,20 @@
       <t>--</t>
     </r>
   </si>
+  <si>
+    <t>Please select the image tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Available Image Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +95,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,9 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,15 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="24.25" style="1"/>
+    <col min="1" max="3" width="24.25" style="1"/>
+    <col min="4" max="4" width="24.25" style="2"/>
+    <col min="5" max="16384" width="24.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,23 +490,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A2" numberStoredAsText="1"/>
   </ignoredErrors>
